--- a/DATA SUPPORT/得分/分数汇总.xlsx
+++ b/DATA SUPPORT/得分/分数汇总.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
